--- a/Other/model_parameters.xlsx
+++ b/Other/model_parameters.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albi2\Documents\GitHub\Variational-Autoencoder-for-EEG-analysis\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270347E9-7E32-4BF9-BC82-7F1B0BB04512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5560689B-431F-4B1D-8DC9-1E9D706E5A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Encoder" sheetId="1" r:id="rId1"/>
+    <sheet name="Decoder" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="32">
   <si>
     <t>Batch Norm 2d</t>
   </si>
@@ -115,6 +116,12 @@
   </si>
   <si>
     <t>hvEEGNet</t>
+  </si>
+  <si>
+    <t>Transpose Convolution 2d</t>
+  </si>
+  <si>
+    <t>Upsample</t>
   </si>
 </sst>
 </file>
@@ -156,10 +163,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,470 +450,470 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="A1:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.88671875" style="2"/>
-    <col min="10" max="10" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>8</v>
       </c>
-      <c r="E5" s="2">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="1">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>8</v>
       </c>
-      <c r="I5" s="2">
-        <v>16</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="1">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="D10" s="1">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="2">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2">
-        <v>16</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="H10" s="1">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="1">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="2">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2">
-        <v>16</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="H11" s="1">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="2">
-        <v>16</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="1">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1">
         <v>32</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="2">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="H16" s="1">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1">
         <v>32</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -920,4 +927,455 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B09B153-F4C1-455B-AA63-EA5F261AFF2F}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A3:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Other/model_parameters.xlsx
+++ b/Other/model_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albi2\Documents\GitHub\Variational-Autoencoder-for-EEG-analysis\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5560689B-431F-4B1D-8DC9-1E9D706E5A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352C083B-0A38-427B-B9C1-DCA0E1B38EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Encoder" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="34">
   <si>
     <t>Batch Norm 2d</t>
   </si>
@@ -43,9 +43,6 @@
     <t>First block (temporal filter)</t>
   </si>
   <si>
-    <t>Secon block (spatial filter)</t>
-  </si>
-  <si>
     <t>Convolution 2d</t>
   </si>
   <si>
@@ -122,6 +119,15 @@
   </si>
   <si>
     <t>Upsample</t>
+  </si>
+  <si>
+    <t>Default parameters</t>
+  </si>
+  <si>
+    <t>Parameters name</t>
+  </si>
+  <si>
+    <t>Second block (spatial filter)</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J16" sqref="A1:J16"/>
     </sheetView>
   </sheetViews>
@@ -468,43 +474,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -512,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -524,10 +536,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -536,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -545,39 +557,39 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
@@ -586,10 +598,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1">
         <v>8</v>
@@ -598,7 +610,7 @@
         <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -607,28 +619,28 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -637,28 +649,28 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -667,28 +679,28 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -697,40 +709,40 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" s="1">
         <v>16</v>
       </c>
@@ -738,10 +750,10 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1">
         <v>16</v>
@@ -750,16 +762,16 @@
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1">
         <v>16</v>
@@ -768,11 +780,11 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H11" s="1">
         <v>16</v>
       </c>
@@ -780,7 +792,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -789,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -801,28 +813,28 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -831,28 +843,28 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -861,39 +873,39 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D16" s="1">
         <v>16</v>
@@ -902,10 +914,10 @@
         <v>32</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="1">
         <v>16</v>
@@ -914,16 +926,17 @@
         <v>32</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -933,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B09B153-F4C1-455B-AA63-EA5F261AFF2F}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,105 +964,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1058,28 +1077,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1088,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>16</v>
@@ -1109,11 +1128,11 @@
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H7" s="1">
         <v>16</v>
       </c>
@@ -1121,16 +1140,16 @@
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>16</v>
@@ -1139,10 +1158,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1">
         <v>16</v>
@@ -1151,69 +1170,69 @@
         <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1222,28 +1241,28 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1252,37 +1271,37 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
         <v>8</v>
@@ -1291,10 +1310,10 @@
         <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1">
         <v>8</v>
@@ -1303,7 +1322,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1314,37 +1333,37 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1353,10 +1372,10 @@
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -1365,16 +1384,17 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
